--- a/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>69,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 6,07</t>
+          <t>-3,27; 11,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 9,33</t>
+          <t>-5,75; 10,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 12,16</t>
+          <t>1,22; 16,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 52,78</t>
+          <t>-3,13; 12,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 75,63</t>
+          <t>-20,21; 124,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 101,97</t>
+          <t>-27,62; 87,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 185,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-22,78; 176,53</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,68%</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 5,79</t>
+          <t>-8,02; 8,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 14,01</t>
+          <t>-10,33; 10,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 12,8</t>
+          <t>-4,38; 13,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 43,05</t>
+          <t>-7,18; 9,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 118,88</t>
+          <t>-43,62; 91,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 115,93</t>
+          <t>-45,15; 78,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 128,89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-45,89; 123,37</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-19,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-19,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>148,11%</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>-42,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-53,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-28,78%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 20,8</t>
+          <t>-11,46; 17,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 7,65</t>
+          <t>-54,35; 8,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 20,67</t>
+          <t>-57,13; 9,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,16; —</t>
+          <t>-30,03; 16,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 39,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 306,17</t>
+          <t>-80,12; 39,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-95,05; 78,5</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-89,47; 392,57</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,11</t>
+          <t>-2,19; 8,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,46</t>
+          <t>-9,13; 6,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,59</t>
+          <t>-4,01; 9,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 41,37</t>
+          <t>-4,15; 7,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 51,65</t>
+          <t>-13,52; 86,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 85,05</t>
+          <t>-34,86; 37,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 73,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 83,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,85</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>33,65%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,93%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>69,6%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,02%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.420233143624912</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.859241014275532</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.973319159043811</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.915283001770342</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.424165680055844</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1688920085792639</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7005233226970082</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.350686637336185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 11,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 10,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 16,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 12,55</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-20,21; 124,7</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-27,62; 87,18</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 185,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 176,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.420388423431445</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.574230121926622</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.9996480353386914</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.686020721347647</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.164366113210655</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2196094257986138</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.03276448364367213</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2618441913374212</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.01590061404734</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.98687567674292</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.14723700421711</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.97603065480859</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.392743384556016</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.027025180038436</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.864101036599028</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.804502501620037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,12%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,54%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 8,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 10,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 13,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 9,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-43,62; 91,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-45,15; 78,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,45; 128,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-45,89; 123,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.017459561046494</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.0328781168682013</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.822109770485095</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7726615239517121</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.06881562376154124</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.001733724412523785</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3208220380877308</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.06050681765289292</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-19,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-19,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>64,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-42,11%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-53,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-28,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.978105047343467</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.62182395265131</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.470808231807306</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.254888734066321</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4537464608300185</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4885801624186901</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1930500629868616</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4483079319831893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; 17,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-54,35; 8,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-57,13; 9,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; 16,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-80,12; 39,5</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-95,05; 78,5</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-89,47; 392,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.681745001223675</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.628525831865216</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.41306036263839</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.00090019729578</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.972224310251171</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7120127490434324</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.438681956583213</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.305458360834551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,36%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>23,84%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,16%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.879329125495147</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-16.52449056004829</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-18.37679621079714</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.329386892667491</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.879628392473356</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3734977151118353</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5278224094907646</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1812767624859354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 8,52</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 6,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 9,87</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 7,94</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 86,14</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-34,86; 37,36</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-18,76; 73,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; 83,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.73358687897074</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-49.46555543892551</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-56.814257837605</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-28.14594069156953</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.7578838856213967</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.948624043301149</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.892466901794071</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.7298041948561</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.93240063835812</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.490654248041404</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.49267852097302</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.5525257607327499</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.9517149490174457</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>4.229827530958164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.463274535809649</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4191864275029017</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.358988865180508</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.830611452462894</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2708777296532827</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.02029097099366527</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.271072409626619</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1445853405017292</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.743085744909552</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.165380599392877</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.741076401196886</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.335715679958127</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1247527734028461</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.317538328887335</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1772919615152733</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.277672672194509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.343772412543096</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.59237810797525</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.970963270658919</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.084069719560222</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9150200444612251</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3953574309389418</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7949295082206156</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8074266543568164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1021,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
